--- a/data/trans_dic/P1_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1_R-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07799701601800794</v>
+        <v>0.07919352329585244</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05406582185651471</v>
+        <v>0.05371293649156599</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08311069120872878</v>
+        <v>0.08231320682622853</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1372546000535614</v>
+        <v>0.1427560555742057</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08862593165633953</v>
+        <v>0.09183192041185824</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05822369120096366</v>
+        <v>0.05986296234625942</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08651117687464278</v>
+        <v>0.08839941388193905</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1210106147561827</v>
+        <v>0.1216978148474952</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09465619206862347</v>
+        <v>0.09158949761576685</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.06345384744548331</v>
+        <v>0.06303613502405868</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09435767932833679</v>
+        <v>0.09455719378887981</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1373487029853929</v>
+        <v>0.1410269887908129</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1576308468902349</v>
+        <v>0.1614351446891035</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.112586441751785</v>
+        <v>0.1125734065663698</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1573576947868853</v>
+        <v>0.1626594051561603</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2301446216424426</v>
+        <v>0.2293088698716386</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1703343982548601</v>
+        <v>0.1791855357859879</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1334505272668353</v>
+        <v>0.1338822300418743</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1703610692646844</v>
+        <v>0.1724310205301239</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1785167531503458</v>
+        <v>0.1814995515432011</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1499307516689067</v>
+        <v>0.1492633320331584</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1099849489071251</v>
+        <v>0.1091661296872727</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1498026031158738</v>
+        <v>0.1533262779851977</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1918334003696041</v>
+        <v>0.1946552581854047</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05021883703841795</v>
+        <v>0.05035802447839396</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03111833791738116</v>
+        <v>0.03208822863710448</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05748056578937386</v>
+        <v>0.0594266820764855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1235198217737317</v>
+        <v>0.1217365394742527</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07019204014697904</v>
+        <v>0.06921803118976869</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04998286406628712</v>
+        <v>0.05098978115572686</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05207924178088227</v>
+        <v>0.05109644766194472</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1371832449803439</v>
+        <v>0.1351714589047123</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0658510963891704</v>
+        <v>0.06714815756980622</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04566057476220887</v>
+        <v>0.04701028058238667</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06077723552914483</v>
+        <v>0.0618274233221219</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.139574189846568</v>
+        <v>0.1364746543066073</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1004119125949901</v>
+        <v>0.1006578799863745</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07575072953271973</v>
+        <v>0.07749993586388093</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1093411392419639</v>
+        <v>0.1107424209115968</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2003657919089226</v>
+        <v>0.196414482278097</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1224865939036629</v>
+        <v>0.1190199383960706</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09769792840339196</v>
+        <v>0.09787186293120795</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1016482914033431</v>
+        <v>0.1009871841725871</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.190738055758658</v>
+        <v>0.191898166624523</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.101127624629502</v>
+        <v>0.1020377145805144</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07853728037531063</v>
+        <v>0.07929595662678625</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0971906191985458</v>
+        <v>0.09691965352315314</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1848946621185679</v>
+        <v>0.185037335831267</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1167549265176495</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2031863691750471</v>
+        <v>0.203186369175047</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04431301046949594</v>
+        <v>0.04394655720185933</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04944711871042561</v>
+        <v>0.04907457409573376</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06634650356919826</v>
+        <v>0.06642281872252408</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1528935103398881</v>
+        <v>0.1574194582093442</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06229156559041354</v>
+        <v>0.06053672769463901</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1013982741835918</v>
+        <v>0.09952116726940555</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0995670159401207</v>
+        <v>0.1021298164618722</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1814805101840187</v>
+        <v>0.1794373889344465</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05977855982302315</v>
+        <v>0.05974394134894179</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0834786855622474</v>
+        <v>0.08370575724070395</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.094721717185637</v>
+        <v>0.09397467633745379</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1763263393168779</v>
+        <v>0.1782280718893394</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1069887303318323</v>
+        <v>0.102691558164458</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.112730865722918</v>
+        <v>0.1092990225128694</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1259342336341555</v>
+        <v>0.1290268807177736</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2333847882629357</v>
+        <v>0.2426156561920421</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1261354790713945</v>
+        <v>0.1230924039285169</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1769249893453556</v>
+        <v>0.1763600956193853</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1803750584976558</v>
+        <v>0.1824462665867874</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2468163425965396</v>
+        <v>0.2458055300218163</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1043895223216652</v>
+        <v>0.1016548466220032</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1330666732128963</v>
+        <v>0.1338630269520989</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1484060192939417</v>
+        <v>0.142802872709465</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2311301012501391</v>
+        <v>0.2298643066415086</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03492074661365514</v>
+        <v>0.03541383241254312</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06704196155499248</v>
+        <v>0.06933092242677687</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07976707655507477</v>
+        <v>0.080533240740464</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1754960713141276</v>
+        <v>0.1796605156606383</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07153900734918667</v>
+        <v>0.07216907996694208</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06269254908396384</v>
+        <v>0.06096852278561644</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.09806224313436551</v>
+        <v>0.101009150721853</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1790924512866764</v>
+        <v>0.1804645180947486</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05848316972241247</v>
+        <v>0.05991842446708074</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07170550655534995</v>
+        <v>0.07328618778328709</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1005940001761276</v>
+        <v>0.09900417769166778</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1903575056251757</v>
+        <v>0.1903138453948494</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08364813197283061</v>
+        <v>0.08392237297204592</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1290141257045493</v>
+        <v>0.1285663704608259</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1465347697721704</v>
+        <v>0.1468299996261624</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2833291646512323</v>
+        <v>0.2898144287620443</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1305612541760737</v>
+        <v>0.132749061511717</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1202367989943593</v>
+        <v>0.11845914311126</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1764811286935674</v>
+        <v>0.1751283445335051</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2473683143462404</v>
+        <v>0.2426225268139152</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.09854667105512124</v>
+        <v>0.0994585954744278</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1143291634786214</v>
+        <v>0.1147476154608831</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1505166607198771</v>
+        <v>0.1518282209048818</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2514714294892301</v>
+        <v>0.2534991114881752</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.08914853127967852</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1916863517067135</v>
+        <v>0.1916863517067136</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.06643442767483877</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05552594493332888</v>
+        <v>0.05979098851317647</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02540057314238811</v>
+        <v>0.02482052159607192</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1028437328289378</v>
+        <v>0.1006827611936641</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2001287043417894</v>
+        <v>0.1980445004534241</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01879948274434447</v>
+        <v>0.01838010744613988</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04079487550018991</v>
+        <v>0.04174104447512127</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05150451166117431</v>
+        <v>0.05514085111500033</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1610412007727959</v>
+        <v>0.1576427462674563</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.04257865700215475</v>
+        <v>0.04636794052462352</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03991796977190911</v>
+        <v>0.04227301570781385</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08807438916505669</v>
+        <v>0.09010178393670053</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1878648168377354</v>
+        <v>0.1876131699660036</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1363016844641645</v>
+        <v>0.1397760828099759</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08613916882331676</v>
+        <v>0.08735471803586015</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2039237808712069</v>
+        <v>0.1977487670838964</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3000716342123725</v>
+        <v>0.302316663556752</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07283708921600961</v>
+        <v>0.074404243796903</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1159800121314153</v>
+        <v>0.1201737127547484</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1329224327413412</v>
+        <v>0.1432275829282115</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2307708022909944</v>
+        <v>0.2305466389609338</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09359337476742682</v>
+        <v>0.09628195629999731</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0860289715549223</v>
+        <v>0.08829490489762298</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1496317865328064</v>
+        <v>0.1541095525799594</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2521509883900293</v>
+        <v>0.2503059161145971</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.05473702595782178</v>
+        <v>0.05394970476753166</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04852904385765677</v>
+        <v>0.04857369031176173</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0787504825746978</v>
+        <v>0.07626937048320355</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2324404242576486</v>
+        <v>0.2263470187616707</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07646098249908473</v>
+        <v>0.07800571119526849</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09441816383566587</v>
+        <v>0.09433852839057792</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.09608062868617942</v>
+        <v>0.09445448313839977</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1801889644006361</v>
+        <v>0.1778678508142526</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07306380578653689</v>
+        <v>0.07578871685378452</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08007680455481694</v>
+        <v>0.08062762066729226</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09338803322747599</v>
+        <v>0.09756310214373262</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.216661945307172</v>
+        <v>0.2155142352002769</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1217788235592842</v>
+        <v>0.1201259773749594</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1208995306267873</v>
+        <v>0.1167157696567096</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1575385180788986</v>
+        <v>0.1571534047433795</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3261530239168726</v>
+        <v>0.3211629317719629</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1547434030419846</v>
+        <v>0.1530321512852681</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1760397915650002</v>
+        <v>0.1764913900992157</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1808643468094226</v>
+        <v>0.1786665562768932</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2494307830268601</v>
+        <v>0.2525075320377528</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1224871136972463</v>
+        <v>0.1241264184801667</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1335796034915811</v>
+        <v>0.1345217367034956</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1538794995963512</v>
+        <v>0.1568106818596886</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2767464166916925</v>
+        <v>0.2742302055737196</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0496181436940744</v>
+        <v>0.05083550503528078</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07115020261504397</v>
+        <v>0.0726083530311816</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.157627759630652</v>
+        <v>0.1548593118966568</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1501967044248696</v>
+        <v>0.1539791197857059</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06259771087277241</v>
+        <v>0.05980203842490563</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08633363958483865</v>
+        <v>0.08918454769893737</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.169220080384282</v>
+        <v>0.1703466517989107</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1169096987831132</v>
+        <v>0.1160889875372103</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06235750836207103</v>
+        <v>0.06286551427706163</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.08613544399408556</v>
+        <v>0.08496834559103002</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.172108735519331</v>
+        <v>0.1712950192984996</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1406802624403949</v>
+        <v>0.13961600107521</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0936796639907842</v>
+        <v>0.096990558962729</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1162384813107569</v>
+        <v>0.1227710881845805</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2189324499242014</v>
+        <v>0.2178326213354172</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2135682736758619</v>
+        <v>0.213425461953377</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1074176983556435</v>
+        <v>0.1022772963788122</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1374368052855611</v>
+        <v>0.1382582989546003</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2342520352730388</v>
+        <v>0.2363835307946481</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1588669157416701</v>
+        <v>0.1574701977827594</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.09375253167377341</v>
+        <v>0.09295779216979315</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1204425862059308</v>
+        <v>0.1203930472403915</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2172638889715348</v>
+        <v>0.216571970528655</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1777583579216838</v>
+        <v>0.1747867850799125</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04507103005511279</v>
+        <v>0.04574489423626504</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.0837724658050195</v>
+        <v>0.08403565981731499</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1015048440097999</v>
+        <v>0.1006707347782509</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1153596372168832</v>
+        <v>0.1138027331083131</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0559929530504564</v>
+        <v>0.05698053860626631</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.0755374079110321</v>
+        <v>0.07772767019156927</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.09670140118415484</v>
+        <v>0.1001312544657689</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1620376670007654</v>
+        <v>0.1603426936233756</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05607498921792618</v>
+        <v>0.05482526935893561</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.08607100950855683</v>
+        <v>0.08570086875922826</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.107627820610204</v>
+        <v>0.108725811008601</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1458740358559382</v>
+        <v>0.1444792275275726</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07896316059143973</v>
+        <v>0.08097396472621837</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1321409397547854</v>
+        <v>0.131440977059943</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.151968031935989</v>
+        <v>0.149590655576646</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1618622005016193</v>
+        <v>0.1638451654259042</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.09382505548792953</v>
+        <v>0.09626028185350617</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1190845138119724</v>
+        <v>0.1225689851753556</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1460332937811128</v>
+        <v>0.1477239183492371</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2068402876227464</v>
+        <v>0.2091057660985952</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.08150342340710563</v>
+        <v>0.08039155617837121</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1184169736757431</v>
+        <v>0.1167815628830709</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1414700101523756</v>
+        <v>0.1413714619240211</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1774287753795561</v>
+        <v>0.1770465914788964</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.06363775814385855</v>
+        <v>0.06392091018881668</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.07353589179371658</v>
+        <v>0.07376566413983661</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.114175577339665</v>
+        <v>0.1143349401157984</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1707315394594008</v>
+        <v>0.1708704782635676</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.07788274767754579</v>
+        <v>0.07785665563343803</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.08966359619544415</v>
+        <v>0.08911999714698692</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1200827701813381</v>
+        <v>0.1210610439081573</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1658578430228926</v>
+        <v>0.166484069332754</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.07423037710159512</v>
+        <v>0.07372288706060959</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.08475446706629924</v>
+        <v>0.08439132617938079</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1206536784878991</v>
+        <v>0.1207326474957449</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1713751265729525</v>
+        <v>0.1716355767070825</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.08298529739842195</v>
+        <v>0.08253140945498448</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.09267017206440614</v>
+        <v>0.09285157762350343</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1377453698558985</v>
+        <v>0.137234416393485</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.19891789453748</v>
+        <v>0.1971518063532197</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.09787891872869575</v>
+        <v>0.09860053732673664</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1105599777961754</v>
+        <v>0.110909527501871</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1436277704509533</v>
+        <v>0.1449132054327391</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1862987730698107</v>
+        <v>0.1866452576155651</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.08694136937526339</v>
+        <v>0.08727319876414162</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.09880143431022401</v>
+        <v>0.09920536069947122</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1377004009364672</v>
+        <v>0.1380529621694524</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1881630531840626</v>
+        <v>0.1897720647703083</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21294</v>
+        <v>21621</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15935</v>
+        <v>15831</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24415</v>
+        <v>24180</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43763</v>
+        <v>45517</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23117</v>
+        <v>23953</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>16724</v>
+        <v>17195</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>24976</v>
+        <v>25521</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>38247</v>
+        <v>38464</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>50532</v>
+        <v>48895</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>36929</v>
+        <v>36686</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>54960</v>
+        <v>55076</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>87204</v>
+        <v>89539</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>43035</v>
+        <v>44073</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33184</v>
+        <v>33180</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>46226</v>
+        <v>47783</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>73380</v>
+        <v>73114</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>44430</v>
+        <v>46738</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>38333</v>
+        <v>38457</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>49184</v>
+        <v>49781</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>56422</v>
+        <v>57365</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>80040</v>
+        <v>79684</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>64009</v>
+        <v>63533</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>87255</v>
+        <v>89307</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>121796</v>
+        <v>123588</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>24762</v>
+        <v>24830</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>15731</v>
+        <v>16221</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>28888</v>
+        <v>29866</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>65545</v>
+        <v>64599</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>35373</v>
+        <v>34882</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>26179</v>
+        <v>26707</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>27242</v>
+        <v>26728</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>74970</v>
+        <v>73870</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>65655</v>
+        <v>66948</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>46998</v>
+        <v>48387</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>62337</v>
+        <v>63414</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>150341</v>
+        <v>147002</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>49511</v>
+        <v>49632</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>38294</v>
+        <v>39178</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>54952</v>
+        <v>55656</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>106324</v>
+        <v>104227</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>61727</v>
+        <v>59980</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>51171</v>
+        <v>51262</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>53171</v>
+        <v>52825</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>104237</v>
+        <v>104871</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>100827</v>
+        <v>101734</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>80838</v>
+        <v>81619</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>99684</v>
+        <v>99407</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>199158</v>
+        <v>199311</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>14129</v>
+        <v>14012</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16023</v>
+        <v>15902</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>21136</v>
+        <v>21160</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>48313</v>
+        <v>49743</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>20893</v>
+        <v>20305</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>34579</v>
+        <v>33939</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>33485</v>
+        <v>34347</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>64676</v>
+        <v>63948</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>39111</v>
+        <v>39088</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>55519</v>
+        <v>55670</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>62031</v>
+        <v>61542</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>118557</v>
+        <v>119836</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>34113</v>
+        <v>32743</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>36530</v>
+        <v>35418</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>40118</v>
+        <v>41103</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>73748</v>
+        <v>76665</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>42307</v>
+        <v>41287</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>60335</v>
+        <v>60142</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>60662</v>
+        <v>61358</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>87961</v>
+        <v>87600</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>68298</v>
+        <v>66508</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>88498</v>
+        <v>89028</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>97187</v>
+        <v>93518</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>155406</v>
+        <v>154555</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>12525</v>
+        <v>12702</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25072</v>
+        <v>25929</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>29511</v>
+        <v>29794</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>65485</v>
+        <v>67039</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>26574</v>
+        <v>26808</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>24384</v>
+        <v>23714</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>37978</v>
+        <v>39119</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>75570</v>
+        <v>76149</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>42700</v>
+        <v>43748</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>54706</v>
+        <v>55912</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>76175</v>
+        <v>74971</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>151355</v>
+        <v>151320</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>30002</v>
+        <v>30101</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>48249</v>
+        <v>48082</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>54213</v>
+        <v>54322</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>105723</v>
+        <v>108143</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>48498</v>
+        <v>49310</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>46766</v>
+        <v>46075</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>68348</v>
+        <v>67824</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>104380</v>
+        <v>102377</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>71952</v>
+        <v>72617</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>87225</v>
+        <v>87545</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>113978</v>
+        <v>114971</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>199947</v>
+        <v>201559</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11289</v>
+        <v>12156</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5401</v>
+        <v>5277</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21723</v>
+        <v>21266</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>41159</v>
+        <v>40731</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>3904</v>
+        <v>3817</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>8958</v>
+        <v>9166</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>11258</v>
+        <v>12053</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>36865</v>
+        <v>36087</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>17499</v>
+        <v>19056</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>17253</v>
+        <v>18271</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>37855</v>
+        <v>38726</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>81643</v>
+        <v>81533</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>27711</v>
+        <v>28418</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18315</v>
+        <v>18573</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>43073</v>
+        <v>41769</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>61714</v>
+        <v>62176</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>15126</v>
+        <v>15451</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>25468</v>
+        <v>26389</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>29055</v>
+        <v>31308</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>52828</v>
+        <v>52776</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>38465</v>
+        <v>39570</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>37182</v>
+        <v>38162</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>64313</v>
+        <v>66238</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>109580</v>
+        <v>108778</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>14823</v>
+        <v>14610</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>13296</v>
+        <v>13308</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>20721</v>
+        <v>20068</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>62923</v>
+        <v>61274</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>21267</v>
+        <v>21697</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>26440</v>
+        <v>26418</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>26241</v>
+        <v>25797</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>47525</v>
+        <v>46913</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>40109</v>
+        <v>41605</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>44364</v>
+        <v>44669</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>50078</v>
+        <v>52317</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>115796</v>
+        <v>115183</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>32979</v>
+        <v>32531</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>33124</v>
+        <v>31978</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>41452</v>
+        <v>41351</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>88292</v>
+        <v>86941</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>43041</v>
+        <v>42565</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>49297</v>
+        <v>49423</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>49397</v>
+        <v>48797</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>65787</v>
+        <v>66599</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>67240</v>
+        <v>68140</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>74005</v>
+        <v>74527</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>82516</v>
+        <v>84088</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>147909</v>
+        <v>146564</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>30516</v>
+        <v>31265</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>47158</v>
+        <v>48124</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>103492</v>
+        <v>101674</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>108095</v>
+        <v>110817</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>39951</v>
+        <v>38167</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>59903</v>
+        <v>61881</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>116981</v>
+        <v>117760</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>90261</v>
+        <v>89627</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>78149</v>
+        <v>78786</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>116855</v>
+        <v>115272</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>231977</v>
+        <v>230880</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>209859</v>
+        <v>208271</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>57616</v>
+        <v>59652</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>77041</v>
+        <v>81371</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>143742</v>
+        <v>143020</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>153702</v>
+        <v>153600</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>68556</v>
+        <v>65275</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>95361</v>
+        <v>95931</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>161937</v>
+        <v>163411</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>122654</v>
+        <v>121576</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>117495</v>
+        <v>116499</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>163397</v>
+        <v>163330</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>292840</v>
+        <v>291907</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>265170</v>
+        <v>260737</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>33524</v>
+        <v>34025</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>65267</v>
+        <v>65472</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>79030</v>
+        <v>78381</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>92065</v>
+        <v>90823</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>43871</v>
+        <v>44645</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>62232</v>
+        <v>64036</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>79892</v>
+        <v>82725</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>134707</v>
+        <v>133298</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>85644</v>
+        <v>83735</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>137968</v>
+        <v>137374</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>172716</v>
+        <v>174478</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>237688</v>
+        <v>235415</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>58732</v>
+        <v>60228</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>102951</v>
+        <v>102405</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>118320</v>
+        <v>116469</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>129178</v>
+        <v>130760</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>73513</v>
+        <v>75421</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>98108</v>
+        <v>100979</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>120648</v>
+        <v>122045</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>171953</v>
+        <v>173836</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>124481</v>
+        <v>122783</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>189817</v>
+        <v>187195</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>227024</v>
+        <v>226866</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>289103</v>
+        <v>288480</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>208512</v>
+        <v>209440</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>251991</v>
+        <v>252779</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>387552</v>
+        <v>388093</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>603154</v>
+        <v>603645</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>263181</v>
+        <v>263093</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>319051</v>
+        <v>317116</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>425638</v>
+        <v>429106</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>619803</v>
+        <v>622143</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>494058</v>
+        <v>490680</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>592017</v>
+        <v>589481</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>837203</v>
+        <v>837751</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1245848</v>
+        <v>1247742</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>271905</v>
+        <v>270418</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>317560</v>
+        <v>318182</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>467556</v>
+        <v>465822</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>702730</v>
+        <v>696490</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>330752</v>
+        <v>333191</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>393407</v>
+        <v>394650</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>509095</v>
+        <v>513651</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>696190</v>
+        <v>697485</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>578659</v>
+        <v>580868</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>690137</v>
+        <v>692958</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>955488</v>
+        <v>957935</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1367892</v>
+        <v>1379589</v>
       </c>
     </row>
     <row r="40">
